--- a/Code/Results/Cases/Case_3_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.61823418039882</v>
+        <v>15.45322887519812</v>
       </c>
       <c r="C2">
-        <v>6.363823994903154</v>
+        <v>5.454524623665281</v>
       </c>
       <c r="D2">
-        <v>4.938607895502281</v>
+        <v>7.630446730495924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.33280887756474</v>
+        <v>39.93366610473762</v>
       </c>
       <c r="G2">
-        <v>33.95469138423374</v>
+        <v>46.51529974670029</v>
       </c>
       <c r="H2">
-        <v>11.77577427452757</v>
+        <v>18.79429747892872</v>
       </c>
       <c r="I2">
-        <v>18.95887408415499</v>
+        <v>29.44411109670961</v>
       </c>
       <c r="J2">
-        <v>5.972140460282469</v>
+        <v>10.34789756718635</v>
       </c>
       <c r="K2">
-        <v>11.53998192887825</v>
+        <v>12.68037904236986</v>
       </c>
       <c r="L2">
-        <v>7.527675053804765</v>
+        <v>11.92238557940252</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.92719632896455</v>
+        <v>21.48115504429802</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.7702801368828</v>
+        <v>15.27558165316948</v>
       </c>
       <c r="C3">
-        <v>6.064863661169787</v>
+        <v>5.337569766701939</v>
       </c>
       <c r="D3">
-        <v>4.781330318850138</v>
+        <v>7.618021024537695</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.04637851653075</v>
+        <v>39.99408338023418</v>
       </c>
       <c r="G3">
-        <v>33.50583915429495</v>
+        <v>46.57514058803697</v>
       </c>
       <c r="H3">
-        <v>11.79878820834772</v>
+        <v>18.84071145555603</v>
       </c>
       <c r="I3">
-        <v>19.00466823338347</v>
+        <v>29.52384162097812</v>
       </c>
       <c r="J3">
-        <v>6.006834344966402</v>
+        <v>10.3671935495811</v>
       </c>
       <c r="K3">
-        <v>10.78336805655617</v>
+        <v>12.55726033829397</v>
       </c>
       <c r="L3">
-        <v>7.379857386393502</v>
+        <v>11.92340868948161</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.14010962657307</v>
+        <v>21.54395961560254</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22789895001084</v>
+        <v>15.1686462358763</v>
       </c>
       <c r="C4">
-        <v>5.87382837838595</v>
+        <v>5.263456402650477</v>
       </c>
       <c r="D4">
-        <v>4.68372784260237</v>
+        <v>7.611346060578951</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.8889719346738</v>
+        <v>40.03903686003868</v>
       </c>
       <c r="G4">
-        <v>33.25708684565819</v>
+        <v>46.6228518969219</v>
       </c>
       <c r="H4">
-        <v>11.8197126324</v>
+        <v>18.87196216312665</v>
       </c>
       <c r="I4">
-        <v>19.04503016725064</v>
+        <v>29.57757617779722</v>
       </c>
       <c r="J4">
-        <v>6.02966554290861</v>
+        <v>10.37984214586248</v>
       </c>
       <c r="K4">
-        <v>10.37533210484495</v>
+        <v>12.48356421094219</v>
       </c>
       <c r="L4">
-        <v>7.290918681720812</v>
+        <v>11.92568912131474</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.2738229550977</v>
+        <v>21.58433364710512</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.00159950617685</v>
+        <v>15.12565646217693</v>
       </c>
       <c r="C5">
-        <v>5.794140536723372</v>
+        <v>5.232696202505588</v>
       </c>
       <c r="D5">
-        <v>4.643751885850707</v>
+        <v>7.608868052404941</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.8293961592181</v>
+        <v>40.05932945374339</v>
       </c>
       <c r="G5">
-        <v>33.16236304866975</v>
+        <v>46.64504784276862</v>
       </c>
       <c r="H5">
-        <v>11.82989259811878</v>
+        <v>18.88538904482472</v>
       </c>
       <c r="I5">
-        <v>19.06444791603195</v>
+        <v>29.6006744829685</v>
       </c>
       <c r="J5">
-        <v>6.039350961198242</v>
+        <v>10.38519836486402</v>
       </c>
       <c r="K5">
-        <v>10.20536575447347</v>
+        <v>12.4540409380973</v>
       </c>
       <c r="L5">
-        <v>7.255169849317077</v>
+        <v>11.9270350028209</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.32908441561426</v>
+        <v>21.60124326701005</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.96371051882201</v>
+        <v>15.11855492348335</v>
       </c>
       <c r="C6">
-        <v>5.780798675421379</v>
+        <v>5.227555394694581</v>
       </c>
       <c r="D6">
-        <v>4.637103466821547</v>
+        <v>7.608471261167376</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.81977721569803</v>
+        <v>40.06281816055807</v>
       </c>
       <c r="G6">
-        <v>33.14703209069598</v>
+        <v>46.64889958333892</v>
       </c>
       <c r="H6">
-        <v>11.83168122132443</v>
+        <v>18.88766035696589</v>
       </c>
       <c r="I6">
-        <v>19.06784845016341</v>
+        <v>29.60458245276768</v>
       </c>
       <c r="J6">
-        <v>6.040982177772637</v>
+        <v>10.38609996321341</v>
       </c>
       <c r="K6">
-        <v>10.17692562298707</v>
+        <v>12.44917021791684</v>
       </c>
       <c r="L6">
-        <v>7.249264695753488</v>
+        <v>11.92728367646396</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.33830780282835</v>
+        <v>21.60407872855282</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.22486806952514</v>
+        <v>15.16806401897389</v>
       </c>
       <c r="C7">
-        <v>5.872761068896848</v>
+        <v>5.263043792655103</v>
       </c>
       <c r="D7">
-        <v>4.68318945206027</v>
+        <v>7.611311658403443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.88815008191663</v>
+        <v>40.03930254473852</v>
       </c>
       <c r="G7">
-        <v>33.25578261681947</v>
+        <v>46.62314009900214</v>
       </c>
       <c r="H7">
-        <v>11.81984330187368</v>
+        <v>18.87214044121608</v>
       </c>
       <c r="I7">
-        <v>19.04528015903378</v>
+        <v>29.57788282784834</v>
       </c>
       <c r="J7">
-        <v>6.029794622836756</v>
+        <v>10.37991356397184</v>
       </c>
       <c r="K7">
-        <v>10.37305457380556</v>
+        <v>12.4831639507393</v>
       </c>
       <c r="L7">
-        <v>7.290434510966409</v>
+        <v>11.92570558421178</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.27456507548778</v>
+        <v>21.58455984458455</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.33047160792603</v>
+        <v>15.39156150043876</v>
       </c>
       <c r="C8">
-        <v>6.262314279441735</v>
+        <v>5.414688473041633</v>
       </c>
       <c r="D8">
-        <v>4.884626357924315</v>
+        <v>7.625965535727442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.23017443070989</v>
+        <v>39.95286617103161</v>
       </c>
       <c r="G8">
-        <v>33.79429796677582</v>
+        <v>46.53365358992788</v>
       </c>
       <c r="H8">
-        <v>11.7822658576139</v>
+        <v>18.8097296969162</v>
       </c>
       <c r="I8">
-        <v>18.97205644601157</v>
+        <v>29.47060965587741</v>
       </c>
       <c r="J8">
-        <v>5.983783718590747</v>
+        <v>10.35438488919917</v>
       </c>
       <c r="K8">
-        <v>11.27992442506423</v>
+        <v>12.63755234498302</v>
       </c>
       <c r="L8">
-        <v>7.476351195075691</v>
+        <v>11.92239613127449</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.00000305058571</v>
+        <v>21.50243480752829</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.31979773732454</v>
+        <v>15.84463066316457</v>
       </c>
       <c r="C9">
-        <v>6.96566106153805</v>
+        <v>5.692952749089073</v>
       </c>
       <c r="D9">
-        <v>5.269137254970587</v>
+        <v>7.662178585187165</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.0501913043684</v>
+        <v>39.84578098516543</v>
       </c>
       <c r="G9">
-        <v>35.06711648407811</v>
+        <v>46.44538620377131</v>
       </c>
       <c r="H9">
-        <v>11.76501187879215</v>
+        <v>18.70918665017162</v>
       </c>
       <c r="I9">
-        <v>18.93059847000674</v>
+        <v>29.29820928228941</v>
       </c>
       <c r="J9">
-        <v>5.905832350892722</v>
+        <v>10.3106569463916</v>
       </c>
       <c r="K9">
-        <v>13.05355545720995</v>
+        <v>12.95397891837028</v>
       </c>
       <c r="L9">
-        <v>7.853805316586679</v>
+        <v>11.92896303287568</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.48421970893339</v>
+        <v>21.35570350203348</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.66634535546506</v>
+        <v>16.18354486518517</v>
       </c>
       <c r="C10">
-        <v>7.444371535805907</v>
+        <v>5.884709795468531</v>
       </c>
       <c r="D10">
-        <v>5.542484900228332</v>
+        <v>7.693206086737211</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.74692180821275</v>
+        <v>39.80523310126929</v>
       </c>
       <c r="G10">
-        <v>36.13847664141975</v>
+        <v>46.43389509631222</v>
       </c>
       <c r="H10">
-        <v>11.79029129273354</v>
+        <v>18.64864174477625</v>
       </c>
       <c r="I10">
-        <v>18.96937661078092</v>
+        <v>29.19473880186336</v>
       </c>
       <c r="J10">
-        <v>5.856261463450285</v>
+        <v>10.28236350483758</v>
       </c>
       <c r="K10">
-        <v>14.22887216318898</v>
+        <v>13.19287651846865</v>
       </c>
       <c r="L10">
-        <v>8.136912759115559</v>
+        <v>11.94167048058099</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.11754271163507</v>
+        <v>21.25654175219159</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.26707190383583</v>
+        <v>16.33840609202737</v>
       </c>
       <c r="C11">
-        <v>7.653801448323058</v>
+        <v>5.968997466650637</v>
       </c>
       <c r="D11">
-        <v>5.664368218298948</v>
+        <v>7.70824973498604</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.08488797687628</v>
+        <v>39.79507161139819</v>
       </c>
       <c r="G11">
-        <v>36.65603580740958</v>
+        <v>46.44027131956187</v>
       </c>
       <c r="H11">
-        <v>11.81082020179029</v>
+        <v>18.62399264218469</v>
       </c>
       <c r="I11">
-        <v>19.00358924917934</v>
+        <v>29.15271303126837</v>
       </c>
       <c r="J11">
-        <v>5.835435503413314</v>
+        <v>10.27031863892645</v>
       </c>
       <c r="K11">
-        <v>14.73644993263596</v>
+        <v>13.30253689638535</v>
       </c>
       <c r="L11">
-        <v>8.266558720026799</v>
+        <v>11.94914403328444</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.95304165347692</v>
+        <v>21.21328874620404</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.50508527179691</v>
+        <v>16.39709460257484</v>
       </c>
       <c r="C12">
-        <v>7.731908593831678</v>
+        <v>6.000477131912215</v>
       </c>
       <c r="D12">
-        <v>5.71013423456652</v>
+        <v>7.714077062135967</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.21592415340118</v>
+        <v>39.79241434146133</v>
       </c>
       <c r="G12">
-        <v>36.85639656544377</v>
+        <v>46.44435368304551</v>
       </c>
       <c r="H12">
-        <v>11.81995863602557</v>
+        <v>18.61507475667987</v>
       </c>
       <c r="I12">
-        <v>19.01905652965308</v>
+        <v>29.13752494445847</v>
       </c>
       <c r="J12">
-        <v>5.827802125894357</v>
+        <v>10.26587588570863</v>
       </c>
       <c r="K12">
-        <v>14.92481715112345</v>
+        <v>13.34416924162748</v>
       </c>
       <c r="L12">
-        <v>8.315744833801594</v>
+        <v>11.95221563454794</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.89104999793522</v>
+        <v>21.19717553459407</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.45403844468493</v>
+        <v>16.38445377219029</v>
       </c>
       <c r="C13">
-        <v>7.715140112864074</v>
+        <v>5.993717139347803</v>
       </c>
       <c r="D13">
-        <v>5.700295479952734</v>
+        <v>7.712816282139532</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.18756676970118</v>
+        <v>39.79293369212079</v>
       </c>
       <c r="G13">
-        <v>36.81305038734801</v>
+        <v>46.4434003213163</v>
       </c>
       <c r="H13">
-        <v>11.81792875234256</v>
+        <v>18.6169768700953</v>
       </c>
       <c r="I13">
-        <v>19.01561159821856</v>
+        <v>29.1407636606568</v>
       </c>
       <c r="J13">
-        <v>5.829434774984047</v>
+        <v>10.26682745357043</v>
       </c>
       <c r="K13">
-        <v>14.88441888475406</v>
+        <v>13.33519880020399</v>
       </c>
       <c r="L13">
-        <v>8.305148104012854</v>
+        <v>11.95154339998347</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.90438809832947</v>
+        <v>21.20063400135109</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.28674974937006</v>
+        <v>16.34323381063578</v>
       </c>
       <c r="C14">
-        <v>7.660251390384716</v>
+        <v>5.971596182198365</v>
       </c>
       <c r="D14">
-        <v>5.668141382455627</v>
+        <v>7.708726552285309</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.09560698235268</v>
+        <v>39.7948291387964</v>
       </c>
       <c r="G14">
-        <v>36.67243181942295</v>
+        <v>46.44057376110654</v>
       </c>
       <c r="H14">
-        <v>11.8115442941276</v>
+        <v>18.62325062033818</v>
       </c>
       <c r="I14">
-        <v>19.00481067028032</v>
+        <v>29.1514489398845</v>
       </c>
       <c r="J14">
-        <v>5.834802400739343</v>
+        <v>10.26995076076943</v>
       </c>
       <c r="K14">
-        <v>14.75202369515251</v>
+        <v>13.30596008428616</v>
       </c>
       <c r="L14">
-        <v>8.270603617856771</v>
+        <v>11.94939190656577</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.94793569937356</v>
+        <v>21.21195778285782</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.18365411830818</v>
+        <v>16.31798981926614</v>
       </c>
       <c r="C15">
-        <v>7.626474348686439</v>
+        <v>5.957988961066319</v>
       </c>
       <c r="D15">
-        <v>5.648394533071236</v>
+        <v>7.706238395315604</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.03967782969128</v>
+        <v>39.79614518774422</v>
       </c>
       <c r="G15">
-        <v>36.58686912579279</v>
+        <v>46.43905956784455</v>
       </c>
       <c r="H15">
-        <v>11.80781332529781</v>
+        <v>18.62714767894028</v>
       </c>
       <c r="I15">
-        <v>18.9985257357492</v>
+        <v>29.15808857549209</v>
       </c>
       <c r="J15">
-        <v>5.838123326401545</v>
+        <v>10.27187928097312</v>
       </c>
       <c r="K15">
-        <v>14.67042915198007</v>
+        <v>13.28806333312342</v>
       </c>
       <c r="L15">
-        <v>8.249455216442634</v>
+        <v>11.94810545006063</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.97464819567852</v>
+        <v>21.21892850219851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.62747074740928</v>
+        <v>16.17343360881123</v>
       </c>
       <c r="C16">
-        <v>7.43051684885134</v>
+        <v>5.879140858866057</v>
       </c>
       <c r="D16">
-        <v>5.534466922733986</v>
+        <v>7.692241392822963</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.72526080708636</v>
+        <v>39.80606383882993</v>
       </c>
       <c r="G16">
-        <v>36.10526322269321</v>
+        <v>46.43371185279963</v>
       </c>
       <c r="H16">
-        <v>11.78913699908852</v>
+        <v>18.6503108533056</v>
       </c>
       <c r="I16">
-        <v>18.96748516428423</v>
+        <v>29.19758685210487</v>
       </c>
       <c r="J16">
-        <v>5.857657603228279</v>
+        <v>10.28316725167073</v>
       </c>
       <c r="K16">
-        <v>14.19516028178133</v>
+        <v>13.18572675018944</v>
       </c>
       <c r="L16">
-        <v>8.128454618525071</v>
+        <v>11.94121597167651</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.12833706175244</v>
+        <v>21.25940569000744</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.28391031826215</v>
+        <v>16.08489120592432</v>
       </c>
       <c r="C17">
-        <v>7.308165570619981</v>
+        <v>5.83000514963253</v>
       </c>
       <c r="D17">
-        <v>5.463919079407802</v>
+        <v>7.683890567031512</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.5377845847361</v>
+        <v>39.81427012107248</v>
       </c>
       <c r="G17">
-        <v>35.81757019885006</v>
+        <v>46.43340301686601</v>
       </c>
       <c r="H17">
-        <v>11.78003895185504</v>
+        <v>18.66526183101089</v>
       </c>
       <c r="I17">
-        <v>18.95277827011318</v>
+        <v>29.22311019161506</v>
       </c>
       <c r="J17">
-        <v>5.870086284025154</v>
+        <v>10.29030332178484</v>
       </c>
       <c r="K17">
-        <v>13.89669902444044</v>
+        <v>13.1231736207081</v>
       </c>
       <c r="L17">
-        <v>8.054421393284029</v>
+        <v>11.93742177451854</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.2231891683179</v>
+        <v>21.28471172016972</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.08388941836093</v>
+        <v>16.03403178599934</v>
       </c>
       <c r="C18">
-        <v>7.237007193732683</v>
+        <v>5.801467342959341</v>
       </c>
       <c r="D18">
-        <v>5.423111652637484</v>
+        <v>7.679175028708054</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.43193004486918</v>
+        <v>39.81976995245689</v>
       </c>
       <c r="G18">
-        <v>35.65493724986889</v>
+        <v>46.43431769061416</v>
       </c>
       <c r="H18">
-        <v>11.77565182570731</v>
+        <v>18.6741335397581</v>
       </c>
       <c r="I18">
-        <v>18.94587130507785</v>
+        <v>29.23826520597898</v>
       </c>
       <c r="J18">
-        <v>5.877396885407908</v>
+        <v>10.29448556754701</v>
       </c>
       <c r="K18">
-        <v>13.72247982912634</v>
+        <v>13.08728949776262</v>
       </c>
       <c r="L18">
-        <v>8.011922017296335</v>
+        <v>11.93539891646973</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.27796414874589</v>
+        <v>21.29944185911165</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.01575249825911</v>
+        <v>16.01682493655358</v>
       </c>
       <c r="C19">
-        <v>7.212779447114505</v>
+        <v>5.791757962243516</v>
       </c>
       <c r="D19">
-        <v>5.409256548198316</v>
+        <v>7.677593568642357</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.39642797056057</v>
+        <v>39.8217660385921</v>
       </c>
       <c r="G19">
-        <v>35.60035935371167</v>
+        <v>46.43481499107385</v>
       </c>
       <c r="H19">
-        <v>11.77430969667511</v>
+        <v>18.6771841102078</v>
       </c>
       <c r="I19">
-        <v>18.94379540245527</v>
+        <v>29.24347792858097</v>
       </c>
       <c r="J19">
-        <v>5.879899798204864</v>
+        <v>10.29591497278884</v>
       </c>
       <c r="K19">
-        <v>13.66305230668429</v>
+        <v>13.07515710692328</v>
       </c>
       <c r="L19">
-        <v>7.997547646319507</v>
+        <v>11.93474145527336</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.29654843430394</v>
+        <v>21.30445928496137</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.32073305708911</v>
+        <v>16.09431006207367</v>
       </c>
       <c r="C20">
-        <v>7.321271355426012</v>
+        <v>5.835264432463488</v>
       </c>
       <c r="D20">
-        <v>5.471453102986752</v>
+        <v>7.68477047789369</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.55753690439617</v>
+        <v>39.81331584457772</v>
       </c>
       <c r="G20">
-        <v>35.84790139573629</v>
+        <v>46.43332284467662</v>
       </c>
       <c r="H20">
-        <v>11.78091943900987</v>
+        <v>18.66364209032068</v>
       </c>
       <c r="I20">
-        <v>18.95418228677567</v>
+        <v>29.22034405568774</v>
       </c>
       <c r="J20">
-        <v>5.86874643305309</v>
+        <v>10.28953562923128</v>
       </c>
       <c r="K20">
-        <v>13.92873450278941</v>
+        <v>13.12982295456298</v>
       </c>
       <c r="L20">
-        <v>8.062294047161556</v>
+        <v>11.9378091827284</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.21306959024074</v>
+        <v>21.28199976938245</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.33601694668953</v>
+        <v>16.3553402834349</v>
       </c>
       <c r="C21">
-        <v>7.676406065535081</v>
+        <v>5.978105650697095</v>
       </c>
       <c r="D21">
-        <v>5.677596614910804</v>
+        <v>7.709924284315233</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.1225346214434</v>
+        <v>39.79424009322793</v>
       </c>
       <c r="G21">
-        <v>36.71361601497279</v>
+        <v>46.44135873824028</v>
       </c>
       <c r="H21">
-        <v>11.81338199576653</v>
+        <v>18.62139657118706</v>
       </c>
       <c r="I21">
-        <v>19.00791396380443</v>
+        <v>29.14829069961022</v>
       </c>
       <c r="J21">
-        <v>5.833218891358516</v>
+        <v>10.26903016018259</v>
       </c>
       <c r="K21">
-        <v>14.79101519568547</v>
+        <v>13.31454559754766</v>
       </c>
       <c r="L21">
-        <v>8.280747911103825</v>
+        <v>11.95001731316843</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.93513677995777</v>
+        <v>21.20862451012655</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.01988219315002</v>
+        <v>16.52618245717862</v>
       </c>
       <c r="C22">
-        <v>7.901519799693178</v>
+        <v>6.068900109374594</v>
       </c>
       <c r="D22">
-        <v>5.810045972212322</v>
+        <v>7.727123661267282</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.50961800225856</v>
+        <v>39.78871241604373</v>
       </c>
       <c r="G22">
-        <v>37.30490782948327</v>
+        <v>46.45633079185602</v>
       </c>
       <c r="H22">
-        <v>11.84258365113271</v>
+        <v>18.59621264069293</v>
       </c>
       <c r="I22">
-        <v>19.05773177222334</v>
+        <v>29.10543266151522</v>
       </c>
       <c r="J22">
-        <v>5.811476692239615</v>
+        <v>10.25631845586131</v>
       </c>
       <c r="K22">
-        <v>15.33220080746533</v>
+        <v>13.43587622071336</v>
       </c>
       <c r="L22">
-        <v>8.424043853729312</v>
+        <v>11.95940286714791</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.75523306862667</v>
+        <v>21.16221808072698</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.65744108835178</v>
+        <v>16.43499570065174</v>
       </c>
       <c r="C23">
-        <v>7.782010376669485</v>
+        <v>6.020680321045988</v>
       </c>
       <c r="D23">
-        <v>5.73957373063245</v>
+        <v>7.717875513207886</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.30138312697706</v>
+        <v>39.79102802180155</v>
       </c>
       <c r="G23">
-        <v>36.98698207268205</v>
+        <v>46.44745110501117</v>
       </c>
       <c r="H23">
-        <v>11.826245286152</v>
+        <v>18.6094317541788</v>
       </c>
       <c r="I23">
-        <v>19.02975495694908</v>
+        <v>29.12791919874471</v>
       </c>
       <c r="J23">
-        <v>5.822943980430805</v>
+        <v>10.26303994450285</v>
       </c>
       <c r="K23">
-        <v>15.04538815642847</v>
+        <v>13.37107611714083</v>
       </c>
       <c r="L23">
-        <v>8.347525857454871</v>
+        <v>11.95426555969458</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.85110194638226</v>
+        <v>21.18684475117875</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.30409329175906</v>
+        <v>16.09005165364524</v>
       </c>
       <c r="C24">
-        <v>7.315348774777461</v>
+        <v>5.8328876098588</v>
       </c>
       <c r="D24">
-        <v>5.468047742396358</v>
+        <v>7.684372403776293</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.54860087779289</v>
+        <v>39.8137448372558</v>
       </c>
       <c r="G24">
-        <v>35.83418004973387</v>
+        <v>46.43335568822148</v>
       </c>
       <c r="H24">
-        <v>11.7805187485665</v>
+        <v>18.66437351475521</v>
       </c>
       <c r="I24">
-        <v>18.9535427181885</v>
+        <v>29.22159312654177</v>
       </c>
       <c r="J24">
-        <v>5.869351665532416</v>
+        <v>10.28988245498334</v>
       </c>
       <c r="K24">
-        <v>13.91425945834608</v>
+        <v>13.12681654349428</v>
       </c>
       <c r="L24">
-        <v>8.058734620716212</v>
+        <v>11.93763354170068</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.21764389161857</v>
+        <v>21.28322527728028</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80150755238879</v>
+        <v>15.72078624980368</v>
       </c>
       <c r="C25">
-        <v>6.782014779083665</v>
+        <v>5.619832400617722</v>
       </c>
       <c r="D25">
-        <v>5.16654407156047</v>
+        <v>7.651595081163241</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.81200237743047</v>
+        <v>39.8680581832582</v>
       </c>
       <c r="G25">
-        <v>34.69909746555037</v>
+        <v>46.45990372055964</v>
       </c>
       <c r="H25">
-        <v>11.76327558928938</v>
+        <v>18.734046782142</v>
       </c>
       <c r="I25">
-        <v>18.93016765757743</v>
+        <v>29.34077874288607</v>
       </c>
       <c r="J25">
-        <v>5.925584859699966</v>
+        <v>10.32181132531801</v>
       </c>
       <c r="K25">
-        <v>12.59638676698617</v>
+        <v>12.86710961940289</v>
       </c>
       <c r="L25">
-        <v>7.750532708893389</v>
+        <v>11.9257961068565</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.62148329116026</v>
+        <v>21.39387449700152</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.45322887519812</v>
+        <v>14.61823418039881</v>
       </c>
       <c r="C2">
-        <v>5.454524623665281</v>
+        <v>6.363823994903117</v>
       </c>
       <c r="D2">
-        <v>7.630446730495924</v>
+        <v>4.938607895502328</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.93366610473762</v>
+        <v>27.33280887756489</v>
       </c>
       <c r="G2">
-        <v>46.51529974670029</v>
+        <v>33.95469138423382</v>
       </c>
       <c r="H2">
-        <v>18.79429747892872</v>
+        <v>11.77577427452769</v>
       </c>
       <c r="I2">
-        <v>29.44411109670961</v>
+        <v>18.95887408415507</v>
       </c>
       <c r="J2">
-        <v>10.34789756718635</v>
+        <v>5.972140460282406</v>
       </c>
       <c r="K2">
-        <v>12.68037904236986</v>
+        <v>11.53998192887821</v>
       </c>
       <c r="L2">
-        <v>11.92238557940252</v>
+        <v>7.527675053804765</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.48115504429802</v>
+        <v>13.92719632896458</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.27558165316948</v>
+        <v>13.77028013688281</v>
       </c>
       <c r="C3">
-        <v>5.337569766701939</v>
+        <v>6.064863661169896</v>
       </c>
       <c r="D3">
-        <v>7.618021024537695</v>
+        <v>4.781330318849996</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.99408338023418</v>
+        <v>27.04637851653072</v>
       </c>
       <c r="G3">
-        <v>46.57514058803697</v>
+        <v>33.50583915429507</v>
       </c>
       <c r="H3">
-        <v>18.84071145555603</v>
+        <v>11.79878820834772</v>
       </c>
       <c r="I3">
-        <v>29.52384162097812</v>
+        <v>19.00466823338353</v>
       </c>
       <c r="J3">
-        <v>10.3671935495811</v>
+        <v>6.006834344966432</v>
       </c>
       <c r="K3">
-        <v>12.55726033829397</v>
+        <v>10.78336805655618</v>
       </c>
       <c r="L3">
-        <v>11.92340868948161</v>
+        <v>7.379857386393425</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.54395961560254</v>
+        <v>14.14010962657313</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.1686462358763</v>
+        <v>13.22789895001077</v>
       </c>
       <c r="C4">
-        <v>5.263456402650477</v>
+        <v>5.873828378385927</v>
       </c>
       <c r="D4">
-        <v>7.611346060578951</v>
+        <v>4.683727842602327</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.03903686003868</v>
+        <v>26.8889719346735</v>
       </c>
       <c r="G4">
-        <v>46.6228518969219</v>
+        <v>33.25708684565782</v>
       </c>
       <c r="H4">
-        <v>18.87196216312665</v>
+        <v>11.81971263239982</v>
       </c>
       <c r="I4">
-        <v>29.57757617779722</v>
+        <v>19.04503016725046</v>
       </c>
       <c r="J4">
-        <v>10.37984214586248</v>
+        <v>6.029665542908517</v>
       </c>
       <c r="K4">
-        <v>12.48356421094219</v>
+        <v>10.37533210484492</v>
       </c>
       <c r="L4">
-        <v>11.92568912131474</v>
+        <v>7.290918681720675</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.58433364710512</v>
+        <v>14.2738229550976</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.12565646217693</v>
+        <v>13.00159950617687</v>
       </c>
       <c r="C5">
-        <v>5.232696202505588</v>
+        <v>5.794140536723164</v>
       </c>
       <c r="D5">
-        <v>7.608868052404941</v>
+        <v>4.643751885850778</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.05932945374339</v>
+        <v>26.82939615921814</v>
       </c>
       <c r="G5">
-        <v>46.64504784276862</v>
+        <v>33.16236304866991</v>
       </c>
       <c r="H5">
-        <v>18.88538904482472</v>
+        <v>11.82989259811881</v>
       </c>
       <c r="I5">
-        <v>29.6006744829685</v>
+        <v>19.06444791603196</v>
       </c>
       <c r="J5">
-        <v>10.38519836486402</v>
+        <v>6.039350961198179</v>
       </c>
       <c r="K5">
-        <v>12.4540409380973</v>
+        <v>10.20536575447348</v>
       </c>
       <c r="L5">
-        <v>11.9270350028209</v>
+        <v>7.255169849317099</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.60124326701005</v>
+        <v>14.32908441561423</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.11855492348335</v>
+        <v>12.96371051882208</v>
       </c>
       <c r="C6">
-        <v>5.227555394694581</v>
+        <v>5.780798675421257</v>
       </c>
       <c r="D6">
-        <v>7.608471261167376</v>
+        <v>4.637103466821429</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.06281816055807</v>
+        <v>26.81977721569807</v>
       </c>
       <c r="G6">
-        <v>46.64889958333892</v>
+        <v>33.14703209069621</v>
       </c>
       <c r="H6">
-        <v>18.88766035696589</v>
+        <v>11.83168122132449</v>
       </c>
       <c r="I6">
-        <v>29.60458245276768</v>
+        <v>19.06784845016352</v>
       </c>
       <c r="J6">
-        <v>10.38609996321341</v>
+        <v>6.040982177772703</v>
       </c>
       <c r="K6">
-        <v>12.44917021791684</v>
+        <v>10.17692562298711</v>
       </c>
       <c r="L6">
-        <v>11.92728367646396</v>
+        <v>7.249264695753463</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.60407872855282</v>
+        <v>14.33830780282835</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.16806401897389</v>
+        <v>13.2248680695251</v>
       </c>
       <c r="C7">
-        <v>5.263043792655103</v>
+        <v>5.872761068896653</v>
       </c>
       <c r="D7">
-        <v>7.611311658403443</v>
+        <v>4.68318945206036</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.03930254473852</v>
+        <v>26.88815008191645</v>
       </c>
       <c r="G7">
-        <v>46.62314009900214</v>
+        <v>33.25578261681932</v>
       </c>
       <c r="H7">
-        <v>18.87214044121608</v>
+        <v>11.81984330187345</v>
       </c>
       <c r="I7">
-        <v>29.57788282784834</v>
+        <v>19.04528015903347</v>
       </c>
       <c r="J7">
-        <v>10.37991356397184</v>
+        <v>6.02979462283666</v>
       </c>
       <c r="K7">
-        <v>12.4831639507393</v>
+        <v>10.37305457380556</v>
       </c>
       <c r="L7">
-        <v>11.92570558421178</v>
+        <v>7.290434510966466</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.58455984458455</v>
+        <v>14.27456507548761</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.39156150043876</v>
+        <v>14.33047160792604</v>
       </c>
       <c r="C8">
-        <v>5.414688473041633</v>
+        <v>6.262314279442045</v>
       </c>
       <c r="D8">
-        <v>7.625965535727442</v>
+        <v>4.884626357924316</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.95286617103161</v>
+        <v>27.2301744307099</v>
       </c>
       <c r="G8">
-        <v>46.53365358992788</v>
+        <v>33.79429796677584</v>
       </c>
       <c r="H8">
-        <v>18.8097296969162</v>
+        <v>11.7822658576139</v>
       </c>
       <c r="I8">
-        <v>29.47060965587741</v>
+        <v>18.97205644601166</v>
       </c>
       <c r="J8">
-        <v>10.35438488919917</v>
+        <v>5.983783718590777</v>
       </c>
       <c r="K8">
-        <v>12.63755234498302</v>
+        <v>11.27992442506423</v>
       </c>
       <c r="L8">
-        <v>11.92239613127449</v>
+        <v>7.476351195075598</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.50243480752829</v>
+        <v>14.00000305058571</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.84463066316457</v>
+        <v>16.31979773732458</v>
       </c>
       <c r="C9">
-        <v>5.692952749089073</v>
+        <v>6.965661061537741</v>
       </c>
       <c r="D9">
-        <v>7.662178585187165</v>
+        <v>5.269137254970587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.84578098516543</v>
+        <v>28.05019130436863</v>
       </c>
       <c r="G9">
-        <v>46.44538620377131</v>
+        <v>35.0671164840785</v>
       </c>
       <c r="H9">
-        <v>18.70918665017162</v>
+        <v>11.76501187879216</v>
       </c>
       <c r="I9">
-        <v>29.29820928228941</v>
+        <v>18.93059847000691</v>
       </c>
       <c r="J9">
-        <v>10.3106569463916</v>
+        <v>5.905832350892698</v>
       </c>
       <c r="K9">
-        <v>12.95397891837028</v>
+        <v>13.05355545720989</v>
       </c>
       <c r="L9">
-        <v>11.92896303287568</v>
+        <v>7.853805316586721</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.35570350203348</v>
+        <v>13.48421970893346</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.18354486518517</v>
+        <v>17.66634535546507</v>
       </c>
       <c r="C10">
-        <v>5.884709795468531</v>
+        <v>7.44437153580602</v>
       </c>
       <c r="D10">
-        <v>7.693206086737211</v>
+        <v>5.542484900228356</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.80523310126929</v>
+        <v>28.74692180821279</v>
       </c>
       <c r="G10">
-        <v>46.43389509631222</v>
+        <v>36.13847664141975</v>
       </c>
       <c r="H10">
-        <v>18.64864174477625</v>
+        <v>11.79029129273356</v>
       </c>
       <c r="I10">
-        <v>29.19473880186336</v>
+        <v>18.96937661078095</v>
       </c>
       <c r="J10">
-        <v>10.28236350483758</v>
+        <v>5.856261463450321</v>
       </c>
       <c r="K10">
-        <v>13.19287651846865</v>
+        <v>14.228872163189</v>
       </c>
       <c r="L10">
-        <v>11.94167048058099</v>
+        <v>8.13691275911556</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.25654175219159</v>
+        <v>13.11754271163504</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.33840609202737</v>
+        <v>18.26707190383579</v>
       </c>
       <c r="C11">
-        <v>5.968997466650637</v>
+        <v>7.653801448323057</v>
       </c>
       <c r="D11">
-        <v>7.70824973498604</v>
+        <v>5.664368218298957</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>39.79507161139819</v>
+        <v>29.08488797687651</v>
       </c>
       <c r="G11">
-        <v>46.44027131956187</v>
+        <v>36.65603580740999</v>
       </c>
       <c r="H11">
-        <v>18.62399264218469</v>
+        <v>11.81082020179026</v>
       </c>
       <c r="I11">
-        <v>29.15271303126837</v>
+        <v>19.00358924917953</v>
       </c>
       <c r="J11">
-        <v>10.27031863892645</v>
+        <v>5.835435503413282</v>
       </c>
       <c r="K11">
-        <v>13.30253689638535</v>
+        <v>14.73644993263589</v>
       </c>
       <c r="L11">
-        <v>11.94914403328444</v>
+        <v>8.266558720026792</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.21328874620404</v>
+        <v>12.95304165347699</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.39709460257484</v>
+        <v>18.50508527179691</v>
       </c>
       <c r="C12">
-        <v>6.000477131912215</v>
+        <v>7.731908593831652</v>
       </c>
       <c r="D12">
-        <v>7.714077062135967</v>
+        <v>5.710134234566526</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.79241434146133</v>
+        <v>29.21592415340116</v>
       </c>
       <c r="G12">
-        <v>46.44435368304551</v>
+        <v>36.85639656544374</v>
       </c>
       <c r="H12">
-        <v>18.61507475667987</v>
+        <v>11.81995863602557</v>
       </c>
       <c r="I12">
-        <v>29.13752494445847</v>
+        <v>19.01905652965308</v>
       </c>
       <c r="J12">
-        <v>10.26587588570863</v>
+        <v>5.8278021258943</v>
       </c>
       <c r="K12">
-        <v>13.34416924162748</v>
+        <v>14.92481715112346</v>
       </c>
       <c r="L12">
-        <v>11.95221563454794</v>
+        <v>8.315744833801544</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.19717553459407</v>
+        <v>12.89104999793522</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38445377219029</v>
+        <v>18.45403844468492</v>
       </c>
       <c r="C13">
-        <v>5.993717139347803</v>
+        <v>7.715140112863973</v>
       </c>
       <c r="D13">
-        <v>7.712816282139532</v>
+        <v>5.700295479952678</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.79293369212079</v>
+        <v>29.1875667697012</v>
       </c>
       <c r="G13">
-        <v>46.4434003213163</v>
+        <v>36.81305038734801</v>
       </c>
       <c r="H13">
-        <v>18.6169768700953</v>
+        <v>11.81792875234261</v>
       </c>
       <c r="I13">
-        <v>29.1407636606568</v>
+        <v>19.01561159821856</v>
       </c>
       <c r="J13">
-        <v>10.26682745357043</v>
+        <v>5.82943477498405</v>
       </c>
       <c r="K13">
-        <v>13.33519880020399</v>
+        <v>14.88441888475404</v>
       </c>
       <c r="L13">
-        <v>11.95154339998347</v>
+        <v>8.305148104012854</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.20063400135109</v>
+        <v>12.90438809832947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34323381063578</v>
+        <v>18.28674974937008</v>
       </c>
       <c r="C14">
-        <v>5.971596182198365</v>
+        <v>7.660251390384588</v>
       </c>
       <c r="D14">
-        <v>7.708726552285309</v>
+        <v>5.668141382455572</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>39.7948291387964</v>
+        <v>29.09560698235262</v>
       </c>
       <c r="G14">
-        <v>46.44057376110654</v>
+        <v>36.67243181942293</v>
       </c>
       <c r="H14">
-        <v>18.62325062033818</v>
+        <v>11.81154429412757</v>
       </c>
       <c r="I14">
-        <v>29.1514489398845</v>
+        <v>19.00481067028025</v>
       </c>
       <c r="J14">
-        <v>10.26995076076943</v>
+        <v>5.834802400739347</v>
       </c>
       <c r="K14">
-        <v>13.30596008428616</v>
+        <v>14.7520236951525</v>
       </c>
       <c r="L14">
-        <v>11.94939190656577</v>
+        <v>8.270603617856784</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.21195778285782</v>
+        <v>12.94793569937347</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31798981926614</v>
+        <v>18.1836541183082</v>
       </c>
       <c r="C15">
-        <v>5.957988961066319</v>
+        <v>7.626474348686243</v>
       </c>
       <c r="D15">
-        <v>7.706238395315604</v>
+        <v>5.64839453307119</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.79614518774422</v>
+        <v>29.03967782969118</v>
       </c>
       <c r="G15">
-        <v>46.43905956784455</v>
+        <v>36.5868691257927</v>
       </c>
       <c r="H15">
-        <v>18.62714767894028</v>
+        <v>11.80781332529781</v>
       </c>
       <c r="I15">
-        <v>29.15808857549209</v>
+        <v>18.99852573574911</v>
       </c>
       <c r="J15">
-        <v>10.27187928097312</v>
+        <v>5.838123326401488</v>
       </c>
       <c r="K15">
-        <v>13.28806333312342</v>
+        <v>14.67042915198007</v>
       </c>
       <c r="L15">
-        <v>11.94810545006063</v>
+        <v>8.249455216442572</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.21892850219851</v>
+        <v>12.97464819567845</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.17343360881123</v>
+        <v>17.62747074740928</v>
       </c>
       <c r="C16">
-        <v>5.879140858866057</v>
+        <v>7.430516848851329</v>
       </c>
       <c r="D16">
-        <v>7.692241392822963</v>
+        <v>5.534466922734</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.80606383882993</v>
+        <v>28.72526080708656</v>
       </c>
       <c r="G16">
-        <v>46.43371185279963</v>
+        <v>36.1052632226935</v>
       </c>
       <c r="H16">
-        <v>18.6503108533056</v>
+        <v>11.78913699908862</v>
       </c>
       <c r="I16">
-        <v>29.19758685210487</v>
+        <v>18.96748516428443</v>
       </c>
       <c r="J16">
-        <v>10.28316725167073</v>
+        <v>5.857657603228378</v>
       </c>
       <c r="K16">
-        <v>13.18572675018944</v>
+        <v>14.19516028178125</v>
       </c>
       <c r="L16">
-        <v>11.94121597167651</v>
+        <v>8.128454618525099</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.25940569000744</v>
+        <v>13.12833706175251</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.08489120592432</v>
+        <v>17.28391031826218</v>
       </c>
       <c r="C17">
-        <v>5.83000514963253</v>
+        <v>7.30816557062007</v>
       </c>
       <c r="D17">
-        <v>7.683890567031512</v>
+        <v>5.463919079407781</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.81427012107248</v>
+        <v>28.53778458473591</v>
       </c>
       <c r="G17">
-        <v>46.43340301686601</v>
+        <v>35.81757019884981</v>
       </c>
       <c r="H17">
-        <v>18.66526183101089</v>
+        <v>11.780038951855</v>
       </c>
       <c r="I17">
-        <v>29.22311019161506</v>
+        <v>18.9527782701131</v>
       </c>
       <c r="J17">
-        <v>10.29030332178484</v>
+        <v>5.870086284025219</v>
       </c>
       <c r="K17">
-        <v>13.1231736207081</v>
+        <v>13.89669902444056</v>
       </c>
       <c r="L17">
-        <v>11.93742177451854</v>
+        <v>8.054421393284008</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.28471172016972</v>
+        <v>13.22318916831791</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.03403178599934</v>
+        <v>17.08388941836093</v>
       </c>
       <c r="C18">
-        <v>5.801467342959341</v>
+        <v>7.237007193732857</v>
       </c>
       <c r="D18">
-        <v>7.679175028708054</v>
+        <v>5.423111652637552</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.81976995245689</v>
+        <v>28.43193004486901</v>
       </c>
       <c r="G18">
-        <v>46.43431769061416</v>
+        <v>35.65493724986874</v>
       </c>
       <c r="H18">
-        <v>18.6741335397581</v>
+        <v>11.77565182570717</v>
       </c>
       <c r="I18">
-        <v>29.23826520597898</v>
+        <v>18.94587130507778</v>
       </c>
       <c r="J18">
-        <v>10.29448556754701</v>
+        <v>5.877396885407847</v>
       </c>
       <c r="K18">
-        <v>13.08728949776262</v>
+        <v>13.7224798291264</v>
       </c>
       <c r="L18">
-        <v>11.93539891646973</v>
+        <v>8.011922017296255</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.29944185911165</v>
+        <v>13.27796414874575</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.01682493655358</v>
+        <v>17.01575249825913</v>
       </c>
       <c r="C19">
-        <v>5.791757962243516</v>
+        <v>7.212779447114118</v>
       </c>
       <c r="D19">
-        <v>7.677593568642357</v>
+        <v>5.409256548198322</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.8217660385921</v>
+        <v>28.3964279705607</v>
       </c>
       <c r="G19">
-        <v>46.43481499107385</v>
+        <v>35.60035935371189</v>
       </c>
       <c r="H19">
-        <v>18.6771841102078</v>
+        <v>11.77430969667524</v>
       </c>
       <c r="I19">
-        <v>29.24347792858097</v>
+        <v>18.94379540245532</v>
       </c>
       <c r="J19">
-        <v>10.29591497278884</v>
+        <v>5.879899798204924</v>
       </c>
       <c r="K19">
-        <v>13.07515710692328</v>
+        <v>13.66305230668429</v>
       </c>
       <c r="L19">
-        <v>11.93474145527336</v>
+        <v>7.997547646319609</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.30445928496137</v>
+        <v>13.29654843430398</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.09431006207367</v>
+        <v>17.32073305708913</v>
       </c>
       <c r="C20">
-        <v>5.835264432463488</v>
+        <v>7.321271355426001</v>
       </c>
       <c r="D20">
-        <v>7.68477047789369</v>
+        <v>5.471453102986726</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.81331584457772</v>
+        <v>28.55753690439628</v>
       </c>
       <c r="G20">
-        <v>46.43332284467662</v>
+        <v>35.8479013957365</v>
       </c>
       <c r="H20">
-        <v>18.66364209032068</v>
+        <v>11.78091943900993</v>
       </c>
       <c r="I20">
-        <v>29.22034405568774</v>
+        <v>18.9541822867758</v>
       </c>
       <c r="J20">
-        <v>10.28953562923128</v>
+        <v>5.868746433053182</v>
       </c>
       <c r="K20">
-        <v>13.12982295456298</v>
+        <v>13.92873450278936</v>
       </c>
       <c r="L20">
-        <v>11.9378091827284</v>
+        <v>8.062294047161531</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.28199976938245</v>
+        <v>13.21306959024077</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.3553402834349</v>
+        <v>18.33601694668948</v>
       </c>
       <c r="C21">
-        <v>5.978105650697095</v>
+        <v>7.676406065534967</v>
       </c>
       <c r="D21">
-        <v>7.709924284315233</v>
+        <v>5.677596614910798</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>39.79424009322793</v>
+        <v>29.12253462144348</v>
       </c>
       <c r="G21">
-        <v>46.44135873824028</v>
+        <v>36.71361601497281</v>
       </c>
       <c r="H21">
-        <v>18.62139657118706</v>
+        <v>11.81338199576661</v>
       </c>
       <c r="I21">
-        <v>29.14829069961022</v>
+        <v>19.00791396380448</v>
       </c>
       <c r="J21">
-        <v>10.26903016018259</v>
+        <v>5.833218891358507</v>
       </c>
       <c r="K21">
-        <v>13.31454559754766</v>
+        <v>14.7910151956854</v>
       </c>
       <c r="L21">
-        <v>11.95001731316843</v>
+        <v>8.280747911103889</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.20862451012655</v>
+        <v>12.93513677995777</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.52618245717862</v>
+        <v>19.01988219315005</v>
       </c>
       <c r="C22">
-        <v>6.068900109374594</v>
+        <v>7.901519799693285</v>
       </c>
       <c r="D22">
-        <v>7.727123661267282</v>
+        <v>5.810045972212339</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.78871241604373</v>
+        <v>29.50961800225842</v>
       </c>
       <c r="G22">
-        <v>46.45633079185602</v>
+        <v>37.30490782948303</v>
       </c>
       <c r="H22">
-        <v>18.59621264069293</v>
+        <v>11.84258365113268</v>
       </c>
       <c r="I22">
-        <v>29.10543266151522</v>
+        <v>19.05773177222322</v>
       </c>
       <c r="J22">
-        <v>10.25631845586131</v>
+        <v>5.811476692239589</v>
       </c>
       <c r="K22">
-        <v>13.43587622071336</v>
+        <v>15.33220080746539</v>
       </c>
       <c r="L22">
-        <v>11.95940286714791</v>
+        <v>8.424043853729261</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.16221808072698</v>
+        <v>12.75523306862658</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.43499570065174</v>
+        <v>18.65744108835182</v>
       </c>
       <c r="C23">
-        <v>6.020680321045988</v>
+        <v>7.782010376669378</v>
       </c>
       <c r="D23">
-        <v>7.717875513207886</v>
+        <v>5.739573730632391</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.79102802180155</v>
+        <v>29.30138312697693</v>
       </c>
       <c r="G23">
-        <v>46.44745110501117</v>
+        <v>36.98698207268194</v>
       </c>
       <c r="H23">
-        <v>18.6094317541788</v>
+        <v>11.82624528615191</v>
       </c>
       <c r="I23">
-        <v>29.12791919874471</v>
+        <v>19.02975495694893</v>
       </c>
       <c r="J23">
-        <v>10.26303994450285</v>
+        <v>5.822943980430755</v>
       </c>
       <c r="K23">
-        <v>13.37107611714083</v>
+        <v>15.04538815642852</v>
       </c>
       <c r="L23">
-        <v>11.95426555969458</v>
+        <v>8.347525857454837</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.18684475117875</v>
+        <v>12.85110194638213</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09005165364524</v>
+        <v>17.30409329175908</v>
       </c>
       <c r="C24">
-        <v>5.8328876098588</v>
+        <v>7.315348774777718</v>
       </c>
       <c r="D24">
-        <v>7.684372403776293</v>
+        <v>5.468047742396291</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.8137448372558</v>
+        <v>28.54860087779307</v>
       </c>
       <c r="G24">
-        <v>46.43335568822148</v>
+        <v>35.83418004973421</v>
       </c>
       <c r="H24">
-        <v>18.66437351475521</v>
+        <v>11.78051874856665</v>
       </c>
       <c r="I24">
-        <v>29.22159312654177</v>
+        <v>18.95354271818882</v>
       </c>
       <c r="J24">
-        <v>10.28988245498334</v>
+        <v>5.869351665532483</v>
       </c>
       <c r="K24">
-        <v>13.12681654349428</v>
+        <v>13.91425945834602</v>
       </c>
       <c r="L24">
-        <v>11.93763354170068</v>
+        <v>8.058734620716114</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.28322527728028</v>
+        <v>13.21764389161874</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72078624980368</v>
+        <v>15.80150755238883</v>
       </c>
       <c r="C25">
-        <v>5.619832400617722</v>
+        <v>6.78201477908358</v>
       </c>
       <c r="D25">
-        <v>7.651595081163241</v>
+        <v>5.166544071560493</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.8680581832582</v>
+        <v>27.81200237743063</v>
       </c>
       <c r="G25">
-        <v>46.45990372055964</v>
+        <v>34.69909746555061</v>
       </c>
       <c r="H25">
-        <v>18.734046782142</v>
+        <v>11.76327558928943</v>
       </c>
       <c r="I25">
-        <v>29.34077874288607</v>
+        <v>18.93016765757758</v>
       </c>
       <c r="J25">
-        <v>10.32181132531801</v>
+        <v>5.925584859699997</v>
       </c>
       <c r="K25">
-        <v>12.86710961940289</v>
+        <v>12.59638676698617</v>
       </c>
       <c r="L25">
-        <v>11.9257961068565</v>
+        <v>7.750532708893462</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.39387449700152</v>
+        <v>13.62148329116029</v>
       </c>
       <c r="O25">
         <v>0</v>
